--- a/HubTalentos-Avaliacao_BDD/AdvantageOnline_Data.xlsx
+++ b/HubTalentos-Avaliacao_BDD/AdvantageOnline_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex.junior\Documents\HubTalentosAvaliacao-master\HubTalentosAvaliacao-master\HubTalentos-Avaliacao\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex.junior\Git\HubTalentosAvaliacao_BDD\HubTalentos-Avaliacao_BDD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88CA3391-3A80-463B-BF49-DB1BEC0D632B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FB4F66A-7D4B-4A5D-A8A5-02E69A9819EE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="1125" windowWidth="15300" windowHeight="7875" xr2:uid="{8D0779E8-EFC8-4813-BF37-B00537C68B16}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="15375" windowHeight="7875" xr2:uid="{8D0779E8-EFC8-4813-BF37-B00537C68B16}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
@@ -472,7 +472,7 @@
     <t>Maria14</t>
   </si>
   <si>
-    <t>BRUNO200</t>
+    <t>BRUNO234</t>
   </si>
 </sst>
 </file>
@@ -634,7 +634,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -671,6 +671,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -986,7 +987,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA74D7E8-6402-4590-A29D-1B9CE9F8EE2E}">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -1195,12 +1196,15 @@
         <v>67</v>
       </c>
     </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G8" s="14"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{506B5F6E-04B9-42F4-B212-FF15B9BD919A}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{F17133B7-2C6B-415C-9D6B-D05BC20E0D31}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{2D786DDF-5728-4B60-AD28-AF599AF8C51C}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{E6835DCD-797E-423A-91F9-44A94D89F401}"/>
+    <hyperlink ref="C5" r:id="rId1" xr:uid="{E6835DCD-797E-423A-91F9-44A94D89F401}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{2D786DDF-5728-4B60-AD28-AF599AF8C51C}"/>
+    <hyperlink ref="C3" r:id="rId3" xr:uid="{F17133B7-2C6B-415C-9D6B-D05BC20E0D31}"/>
+    <hyperlink ref="C2" r:id="rId4" xr:uid="{506B5F6E-04B9-42F4-B212-FF15B9BD919A}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>

--- a/HubTalentos-Avaliacao_BDD/AdvantageOnline_Data.xlsx
+++ b/HubTalentos-Avaliacao_BDD/AdvantageOnline_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex.junior\Git\HubTalentosAvaliacao_BDD\HubTalentos-Avaliacao_BDD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FB4F66A-7D4B-4A5D-A8A5-02E69A9819EE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BEF4262-57AC-4689-A7B4-644BF93A966F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="15375" windowHeight="7875" xr2:uid="{8D0779E8-EFC8-4813-BF37-B00537C68B16}"/>
+    <workbookView xWindow="405" yWindow="390" windowWidth="14970" windowHeight="7875" xr2:uid="{8D0779E8-EFC8-4813-BF37-B00537C68B16}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
@@ -472,7 +472,7 @@
     <t>Maria14</t>
   </si>
   <si>
-    <t>BRUNO234</t>
+    <t>Max_Steel71</t>
   </si>
 </sst>
 </file>
@@ -1201,10 +1201,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1" xr:uid="{E6835DCD-797E-423A-91F9-44A94D89F401}"/>
-    <hyperlink ref="C4" r:id="rId2" xr:uid="{2D786DDF-5728-4B60-AD28-AF599AF8C51C}"/>
-    <hyperlink ref="C3" r:id="rId3" xr:uid="{F17133B7-2C6B-415C-9D6B-D05BC20E0D31}"/>
-    <hyperlink ref="C2" r:id="rId4" xr:uid="{506B5F6E-04B9-42F4-B212-FF15B9BD919A}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{506B5F6E-04B9-42F4-B212-FF15B9BD919A}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{F17133B7-2C6B-415C-9D6B-D05BC20E0D31}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{2D786DDF-5728-4B60-AD28-AF599AF8C51C}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{E6835DCD-797E-423A-91F9-44A94D89F401}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>

--- a/HubTalentos-Avaliacao_BDD/AdvantageOnline_Data.xlsx
+++ b/HubTalentos-Avaliacao_BDD/AdvantageOnline_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex.junior\Git\HubTalentosAvaliacao_BDD\HubTalentos-Avaliacao_BDD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BEF4262-57AC-4689-A7B4-644BF93A966F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37BD0583-36DE-4146-8D4C-752088DDA963}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="405" yWindow="390" windowWidth="14970" windowHeight="7875" xr2:uid="{8D0779E8-EFC8-4813-BF37-B00537C68B16}"/>
   </bookViews>
@@ -472,7 +472,7 @@
     <t>Maria14</t>
   </si>
   <si>
-    <t>Max_Steel71</t>
+    <t>Max_Steel79</t>
   </si>
 </sst>
 </file>

--- a/HubTalentos-Avaliacao_BDD/AdvantageOnline_Data.xlsx
+++ b/HubTalentos-Avaliacao_BDD/AdvantageOnline_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex.junior\Git\HubTalentosAvaliacao_BDD\HubTalentos-Avaliacao_BDD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37BD0583-36DE-4146-8D4C-752088DDA963}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E81DF2B-C59B-4666-B6BC-A1AF8D8EA670}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="405" yWindow="390" windowWidth="14970" windowHeight="7875" xr2:uid="{8D0779E8-EFC8-4813-BF37-B00537C68B16}"/>
+    <workbookView xWindow="1020" yWindow="1170" windowWidth="15375" windowHeight="7875" xr2:uid="{8D0779E8-EFC8-4813-BF37-B00537C68B16}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
@@ -472,7 +472,7 @@
     <t>Maria14</t>
   </si>
   <si>
-    <t>Max_Steel79</t>
+    <t>Max_Steel97</t>
   </si>
 </sst>
 </file>
@@ -1201,10 +1201,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{506B5F6E-04B9-42F4-B212-FF15B9BD919A}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{F17133B7-2C6B-415C-9D6B-D05BC20E0D31}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{2D786DDF-5728-4B60-AD28-AF599AF8C51C}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{E6835DCD-797E-423A-91F9-44A94D89F401}"/>
+    <hyperlink ref="C5" r:id="rId1" xr:uid="{E6835DCD-797E-423A-91F9-44A94D89F401}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{2D786DDF-5728-4B60-AD28-AF599AF8C51C}"/>
+    <hyperlink ref="C3" r:id="rId3" xr:uid="{F17133B7-2C6B-415C-9D6B-D05BC20E0D31}"/>
+    <hyperlink ref="C2" r:id="rId4" xr:uid="{506B5F6E-04B9-42F4-B212-FF15B9BD919A}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>

--- a/HubTalentos-Avaliacao_BDD/AdvantageOnline_Data.xlsx
+++ b/HubTalentos-Avaliacao_BDD/AdvantageOnline_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex.junior\Git\HubTalentosAvaliacao_BDD\HubTalentos-Avaliacao_BDD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E81DF2B-C59B-4666-B6BC-A1AF8D8EA670}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00B06DB3-4E6D-42A2-BC20-ACF422CF14C5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="1170" windowWidth="15375" windowHeight="7875" xr2:uid="{8D0779E8-EFC8-4813-BF37-B00537C68B16}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8D0779E8-EFC8-4813-BF37-B00537C68B16}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
@@ -472,7 +472,7 @@
     <t>Maria14</t>
   </si>
   <si>
-    <t>Max_Steel97</t>
+    <t>Max_Steel103</t>
   </si>
 </sst>
 </file>

--- a/HubTalentos-Avaliacao_BDD/AdvantageOnline_Data.xlsx
+++ b/HubTalentos-Avaliacao_BDD/AdvantageOnline_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex.junior\Git\HubTalentosAvaliacao_BDD\HubTalentos-Avaliacao_BDD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00B06DB3-4E6D-42A2-BC20-ACF422CF14C5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{594265A1-9E53-48DD-84C8-4C871E079A7D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8D0779E8-EFC8-4813-BF37-B00537C68B16}"/>
   </bookViews>
@@ -472,7 +472,7 @@
     <t>Maria14</t>
   </si>
   <si>
-    <t>Max_Steel103</t>
+    <t>Max_Steel112</t>
   </si>
 </sst>
 </file>

--- a/HubTalentos-Avaliacao_BDD/AdvantageOnline_Data.xlsx
+++ b/HubTalentos-Avaliacao_BDD/AdvantageOnline_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex.junior\Git\HubTalentosAvaliacao_BDD\HubTalentos-Avaliacao_BDD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{594265A1-9E53-48DD-84C8-4C871E079A7D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53DA682E-BADD-4B0D-B018-084B23D25172}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8D0779E8-EFC8-4813-BF37-B00537C68B16}"/>
   </bookViews>
@@ -472,7 +472,7 @@
     <t>Maria14</t>
   </si>
   <si>
-    <t>Max_Steel112</t>
+    <t>Max_Steel114</t>
   </si>
 </sst>
 </file>

--- a/HubTalentos-Avaliacao_BDD/AdvantageOnline_Data.xlsx
+++ b/HubTalentos-Avaliacao_BDD/AdvantageOnline_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex.junior\Git\HubTalentosAvaliacao_BDD\HubTalentos-Avaliacao_BDD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex.junior\Documents\Test\HubTalentosAvaliacao_BDD\HubTalentos-Avaliacao_BDD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53DA682E-BADD-4B0D-B018-084B23D25172}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A0A47E-AD64-405D-970E-BD45DCD2E715}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8D0779E8-EFC8-4813-BF37-B00537C68B16}"/>
+    <workbookView xWindow="1020" yWindow="1170" windowWidth="15375" windowHeight="7875" xr2:uid="{8D0779E8-EFC8-4813-BF37-B00537C68B16}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
@@ -463,16 +463,16 @@
     <t>Machado32</t>
   </si>
   <si>
-    <t>Marcela103</t>
-  </si>
-  <si>
-    <t>BrUn94</t>
-  </si>
-  <si>
-    <t>Maria14</t>
-  </si>
-  <si>
-    <t>Max_Steel114</t>
+    <t>Max_Steel120</t>
+  </si>
+  <si>
+    <t>Marcela121</t>
+  </si>
+  <si>
+    <t>BrUn98</t>
+  </si>
+  <si>
+    <t>Maria17</t>
   </si>
 </sst>
 </file>
@@ -990,7 +990,7 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1052,7 +1052,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>13</v>
@@ -1090,7 +1090,7 @@
         <v>23</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>27</v>
@@ -1128,7 +1128,7 @@
         <v>24</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>28</v>
@@ -1163,7 +1163,7 @@
     </row>
     <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>60</v>

--- a/HubTalentos-Avaliacao_BDD/AdvantageOnline_Data.xlsx
+++ b/HubTalentos-Avaliacao_BDD/AdvantageOnline_Data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex.junior\Documents\Test\HubTalentosAvaliacao_BDD\HubTalentos-Avaliacao_BDD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex.junior\Documents\Test\test2\test3\HubTalentosAvaliacao_BDD\HubTalentos-Avaliacao_BDD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A0A47E-AD64-405D-970E-BD45DCD2E715}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83926183-9F84-4333-B358-9CEB4802AE69}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1020" yWindow="1170" windowWidth="15375" windowHeight="7875" xr2:uid="{8D0779E8-EFC8-4813-BF37-B00537C68B16}"/>
   </bookViews>
@@ -463,9 +463,6 @@
     <t>Machado32</t>
   </si>
   <si>
-    <t>Max_Steel120</t>
-  </si>
-  <si>
     <t>Marcela121</t>
   </si>
   <si>
@@ -473,6 +470,9 @@
   </si>
   <si>
     <t>Maria17</t>
+  </si>
+  <si>
+    <t>Max_Steel126</t>
   </si>
 </sst>
 </file>
@@ -990,7 +990,7 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1052,7 +1052,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>13</v>
@@ -1090,7 +1090,7 @@
         <v>23</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>27</v>
@@ -1128,7 +1128,7 @@
         <v>24</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>28</v>
@@ -1163,7 +1163,7 @@
     </row>
     <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>60</v>

--- a/HubTalentos-Avaliacao_BDD/AdvantageOnline_Data.xlsx
+++ b/HubTalentos-Avaliacao_BDD/AdvantageOnline_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex.junior\Documents\Test\test2\test3\HubTalentosAvaliacao_BDD\HubTalentos-Avaliacao_BDD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83926183-9F84-4333-B358-9CEB4802AE69}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB9A7EC-C816-425A-BA94-B790B7A1A40D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1020" yWindow="1170" windowWidth="15375" windowHeight="7875" xr2:uid="{8D0779E8-EFC8-4813-BF37-B00537C68B16}"/>
   </bookViews>
@@ -472,7 +472,7 @@
     <t>Maria17</t>
   </si>
   <si>
-    <t>Max_Steel126</t>
+    <t>Max_Steel127</t>
   </si>
 </sst>
 </file>

--- a/HubTalentos-Avaliacao_BDD/AdvantageOnline_Data.xlsx
+++ b/HubTalentos-Avaliacao_BDD/AdvantageOnline_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex.junior\Documents\Test\test2\test3\HubTalentosAvaliacao_BDD\HubTalentos-Avaliacao_BDD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex.junior\Documents\Test\test2\test3\test4\test5\HubTalentosAvaliacao_BDD\HubTalentos-Avaliacao_BDD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB9A7EC-C816-425A-BA94-B790B7A1A40D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1816C082-9EA9-40FA-A43C-6FC01D581EDB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="1170" windowWidth="15375" windowHeight="7875" xr2:uid="{8D0779E8-EFC8-4813-BF37-B00537C68B16}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8D0779E8-EFC8-4813-BF37-B00537C68B16}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
@@ -472,7 +472,7 @@
     <t>Maria17</t>
   </si>
   <si>
-    <t>Max_Steel127</t>
+    <t>Max_Steel240</t>
   </si>
 </sst>
 </file>

--- a/HubTalentos-Avaliacao_BDD/AdvantageOnline_Data.xlsx
+++ b/HubTalentos-Avaliacao_BDD/AdvantageOnline_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex.junior\Documents\Test\test2\test3\test4\test5\HubTalentosAvaliacao_BDD\HubTalentos-Avaliacao_BDD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1816C082-9EA9-40FA-A43C-6FC01D581EDB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E1F758C-2860-4A28-8FE5-54A5FD2156C2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8D0779E8-EFC8-4813-BF37-B00537C68B16}"/>
   </bookViews>
@@ -472,7 +472,7 @@
     <t>Maria17</t>
   </si>
   <si>
-    <t>Max_Steel240</t>
+    <t>Max_Steel245</t>
   </si>
 </sst>
 </file>

--- a/HubTalentos-Avaliacao_BDD/AdvantageOnline_Data.xlsx
+++ b/HubTalentos-Avaliacao_BDD/AdvantageOnline_Data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex.junior\Documents\Test\test2\test3\test4\test5\HubTalentosAvaliacao_BDD\HubTalentos-Avaliacao_BDD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex.junior\Documents\test6\HubTalentosAvaliacao_BDD\HubTalentos-Avaliacao_BDD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E1F758C-2860-4A28-8FE5-54A5FD2156C2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B6D6541-6D5E-4660-BB83-1BB66FE5B26C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8D0779E8-EFC8-4813-BF37-B00537C68B16}"/>
   </bookViews>
@@ -472,14 +472,14 @@
     <t>Maria17</t>
   </si>
   <si>
-    <t>Max_Steel245</t>
+    <t>Max_Steel249</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -538,6 +538,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -634,7 +641,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -672,6 +679,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -1051,7 +1061,7 @@
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="15" t="s">
         <v>73</v>
       </c>
       <c r="C2" s="4" t="s">
